--- a/tables/corona_table_Accuracy_F1_Score_samples_percentage.xlsx
+++ b/tables/corona_table_Accuracy_F1_Score_samples_percentage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,61 +471,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
